--- a/biology/Botanique/Liste_des_orchidées_de_Bretagne/Liste_des_orchidées_de_Bretagne.xlsx
+++ b/biology/Botanique/Liste_des_orchidées_de_Bretagne/Liste_des_orchidées_de_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_orchid%C3%A9es_de_Bretagne</t>
+          <t>Liste_des_orchidées_de_Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste ci-dessous recense les orchidées observées en Bretagne et publiées dans un numéro de la revue de l'association Bretagne vivante en 2002[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-dessous recense les orchidées observées en Bretagne et publiées dans un numéro de la revue de l'association Bretagne vivante en 2002.
 Le territoire considéré correspond aux départements de la Bretagne historique, soit les Côtes-d'Armor, le Finistère, l’Ille-et-Vilaine, la Loire-Atlantique et le Morbihan.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_orchid%C3%A9es_de_Bretagne</t>
+          <t>Liste_des_orchidées_de_Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Espèces rencontrées en Bretagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aceras
 Aceras anthropophorum (L.) Aiton fil. Homme pendu, sur 3 stations littorales
